--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
     <sheet name="Entregables" sheetId="2" r:id="rId2"/>
+    <sheet name="Factores" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Entregable</t>
   </si>
@@ -82,13 +83,43 @@
   </si>
   <si>
     <t>Preproprecesamiento de datos</t>
+  </si>
+  <si>
+    <t>Conjunto de Datos</t>
+  </si>
+  <si>
+    <t>Factores</t>
+  </si>
+  <si>
+    <t>Rule Bit Saves
+Find Antecedent Candidates</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>Energy Disaggregation
+Zebra Finch Vocalizations
+Daily Basis Activity
+NASA Telemetry Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia Euclidiana
+Swale
+Spade
+EPR
+Cubic Spline Interpolation
+</t>
+  </si>
+  <si>
+    <t>Medida de Distancia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +135,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,11 +213,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,10 +333,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,30 +674,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -637,7 +830,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="12"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -659,7 +852,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="12"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -681,31 +874,31 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="12"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -721,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B24" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
@@ -811,4 +1004,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="D18" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Entregable</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Objetivos</t>
-  </si>
-  <si>
-    <t>Incorporar todas medidas de distacia en ambos algoritmos</t>
   </si>
   <si>
     <t>Duración 
@@ -50,10 +47,6 @@
     <t>Desarrollo e implementación de un ambiente de pruebas</t>
   </si>
   <si>
-    <t>Desarrollo e implementación de un 
-ambiente de pruebas</t>
-  </si>
-  <si>
     <t>Documento final de tesis</t>
   </si>
   <si>
@@ -63,10 +56,6 @@
     <t>Documento final con la recopilación y el análisis del diseño de experimentos</t>
   </si>
   <si>
-    <t>Implementar un ambiente de pruebas que permita la 
-ejecución de las diferentes versiones de ambos algoritmos</t>
-  </si>
-  <si>
     <t>Documento final del análisis de varianza no paramétrico y caracterización de los resultados obtenidos</t>
   </si>
   <si>
@@ -76,13 +65,7 @@
     <t>Ejecución del diseño de experimentos preparado, incluyendo la medición de las métricas definidas, para determinar si hay diferencias significativas entre los algoritmos.</t>
   </si>
   <si>
-    <t>Incluye el desarrollo de un articulo cientifico.</t>
-  </si>
-  <si>
     <t>Preprocesamiento de datos</t>
-  </si>
-  <si>
-    <t>Preproprecesamiento de datos</t>
   </si>
   <si>
     <t>Conjunto de Datos</t>
@@ -113,6 +96,22 @@
   </si>
   <si>
     <t>Medida de Distancia</t>
+  </si>
+  <si>
+    <t>Modificación del software utilizado para la identificación de reglas motif y el hallazgo de reglas significativas</t>
+  </si>
+  <si>
+    <t>Incorporar todas medidas de distacia propuestas en ambos algoritmos.</t>
+  </si>
+  <si>
+    <t>Implementar un ambiente de pruebas que permita la 
+ejecución de las diferentes versiones de ambos algoritmos.</t>
+  </si>
+  <si>
+    <t>Desarrollo de un artículo científico</t>
+  </si>
+  <si>
+    <t>Preparar un artículo científico para ser presentado en una alguna revista afin al tema desarrollado en esta propuesta.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -324,12 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -339,47 +326,53 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,43 +654,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="17" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="3" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="6" width="3.77734375" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" customWidth="1"/>
+    <col min="8" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.88671875" customWidth="1"/>
+    <col min="15" max="16" width="3.77734375" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -747,9 +751,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -768,16 +772,15 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
       <c r="H4" s="6"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -789,19 +792,19 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="6"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -810,9 +813,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -821,20 +824,20 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -843,20 +846,20 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -864,41 +867,63 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -912,92 +937,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B23:B24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1010,96 +1044,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="12"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="D18" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
